--- a/file2_stephan.xlsx
+++ b/file2_stephan.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timme1mj/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephanrh/Documents/GitHub/geochem_python/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32B9D67-9CBF-5147-93A5-DCFB21358CA4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="5080" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="460" windowWidth="28160" windowHeight="16720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>A_o</t>
   </si>
@@ -47,11 +48,23 @@
     <t>time (s)</t>
   </si>
   <si>
-    <t>MoO4 (M)</t>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>Measured 98Mo</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Mo_tot</t>
+  </si>
+  <si>
+    <t>MoO4 (del)</t>
   </si>
   <si>
     <r>
-      <t>MoO3S (</t>
+      <t>MoO3S (del</t>
     </r>
     <r>
       <rPr>
@@ -59,30 +72,24 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>M)</t>
+      <t>)</t>
     </r>
   </si>
   <si>
-    <t>MoO2S2 (M)</t>
-  </si>
-  <si>
-    <t>MoOS3 (M)</t>
-  </si>
-  <si>
-    <t>MoS4 (M)</t>
-  </si>
-  <si>
-    <t>ND</t>
-  </si>
-  <si>
-    <t>Measured 98Mo</t>
+    <t>MoO2S2 (del)</t>
+  </si>
+  <si>
+    <t>MoOS3 (del)</t>
+  </si>
+  <si>
+    <t>MoS4 (del)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -166,6 +173,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -433,60 +443,66 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
     <col min="2" max="6" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>0</v>
       </c>
@@ -505,8 +521,11 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <v>-2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>7200</v>
       </c>
@@ -523,10 +542,13 @@
         <v>-1.34226979279054</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>-2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>36000</v>
       </c>
@@ -545,8 +567,11 @@
       <c r="F5" s="4">
         <v>-2.4064537621829301</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <v>-2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>86400</v>
       </c>
@@ -565,13 +590,16 @@
       <c r="F6" s="4">
         <v>-2.7982616367041802</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <v>-2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>172800</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C7" s="4">
         <v>3.13781469253734</v>
@@ -585,8 +613,11 @@
       <c r="F7" s="4">
         <v>-3.1669165234996499</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <v>-2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>259200</v>
       </c>
@@ -605,8 +636,11 @@
       <c r="F8" s="4">
         <v>-3.1584810140641899</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <v>-2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>432000</v>
       </c>
@@ -625,8 +659,11 @@
       <c r="F9" s="4">
         <v>-3.1575485092523601</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9">
+        <v>-2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>5284000</v>
       </c>
@@ -645,8 +682,11 @@
       <c r="F10" s="4">
         <v>-2.3478380231843667</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10">
+        <v>-2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>18144000</v>
       </c>
@@ -660,10 +700,13 @@
         <v>4.2609736329760999E-2</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F11" s="4">
         <v>-2.522962418479247</v>
+      </c>
+      <c r="G11">
+        <v>-2.4500000000000002</v>
       </c>
     </row>
   </sheetData>
